--- a/data_year/zb/能源/原油平衡表.xlsx
+++ b/data_year/zb/能源/原油平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1217 +543,651 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20404.3</v>
+        <v>41876.43</v>
       </c>
       <c r="C2" t="n">
-        <v>175.1</v>
+        <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.4</v>
-      </c>
+        <v>3.28</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>1030.6</v>
+        <v>303</v>
       </c>
       <c r="H2" t="n">
-        <v>21383</v>
+        <v>42876.63</v>
       </c>
       <c r="I2" t="n">
-        <v>151</v>
+        <v>2.08000000000436</v>
       </c>
       <c r="J2" t="n">
-        <v>16300</v>
+        <v>20301.4</v>
       </c>
       <c r="K2" t="n">
-        <v>636.8</v>
+        <v>806.12</v>
       </c>
       <c r="L2" t="n">
-        <v>21232</v>
+        <v>42874.55</v>
       </c>
       <c r="M2" t="n">
-        <v>85</v>
+        <v>3.71</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="n">
-        <v>21052.1</v>
+        <v>42716.5506082259</v>
       </c>
       <c r="P2" t="n">
-        <v>612.3</v>
+        <v>806.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>-912.9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.2</v>
-      </c>
+        <v>-889.95</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>190.9</v>
+        <v>192</v>
       </c>
       <c r="U2" t="n">
-        <v>20305.3</v>
+        <v>41869.44</v>
       </c>
       <c r="V2" t="n">
-        <v>7026.5</v>
+        <v>23768.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20500.72</v>
+        <v>43266.1</v>
       </c>
       <c r="C3" t="n">
-        <v>169.81</v>
+        <v>105.4</v>
       </c>
       <c r="D3" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.2</v>
-      </c>
+        <v>4.59</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>755</v>
+        <v>251.43</v>
       </c>
       <c r="H3" t="n">
-        <v>21537.16</v>
+        <v>43961</v>
       </c>
       <c r="I3" t="n">
-        <v>194.419999999999</v>
+        <v>-4.83999999999855</v>
       </c>
       <c r="J3" t="n">
-        <v>16395.87</v>
+        <v>20287.55</v>
       </c>
       <c r="K3" t="n">
-        <v>654.12</v>
+        <v>522.74</v>
       </c>
       <c r="L3" t="n">
-        <v>21342.74</v>
+        <v>43965.84</v>
       </c>
       <c r="M3" t="n">
-        <v>81.59999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>21168.21</v>
+        <v>43860.440608226</v>
       </c>
       <c r="P3" t="n">
-        <v>630.8200000000001</v>
+        <v>522.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>-129.71</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.15</v>
-      </c>
+        <v>-1453</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>187.9</v>
+        <v>177</v>
       </c>
       <c r="U3" t="n">
-        <v>20406.8</v>
+        <v>43250.21</v>
       </c>
       <c r="V3" t="n">
-        <v>6026</v>
+        <v>25377.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21671.31</v>
+        <v>45945.73</v>
       </c>
       <c r="C4" t="n">
-        <v>175.94</v>
+        <v>119.4</v>
       </c>
       <c r="D4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.29</v>
-      </c>
+        <v>1.36</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>766.46</v>
+        <v>243.21</v>
       </c>
       <c r="H4" t="n">
-        <v>22768.99</v>
+        <v>46684.74</v>
       </c>
       <c r="I4" t="n">
-        <v>224.94</v>
+        <v>5.81999999999471</v>
       </c>
       <c r="J4" t="n">
-        <v>16700</v>
+        <v>20747.8</v>
       </c>
       <c r="K4" t="n">
-        <v>684.26</v>
+        <v>555.49</v>
       </c>
       <c r="L4" t="n">
-        <v>22544.05</v>
+        <v>46678.92</v>
       </c>
       <c r="M4" t="n">
-        <v>78.33</v>
+        <v>10.86</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>22362.5</v>
+        <v>46559.520608226</v>
       </c>
       <c r="P4" t="n">
-        <v>663</v>
+        <v>555.49</v>
       </c>
       <c r="Q4" t="n">
-        <v>-105.19</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.12</v>
-      </c>
+        <v>-922.5599999999999</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>188.48</v>
+        <v>177.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21580.22</v>
+        <v>45933.51</v>
       </c>
       <c r="V4" t="n">
-        <v>6940.64</v>
+        <v>27102.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23949</v>
+        <v>47810.53</v>
       </c>
       <c r="C5" t="n">
-        <v>148.31</v>
+        <v>148.73</v>
       </c>
       <c r="D5" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.2</v>
-      </c>
+        <v>3.39</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>813.33</v>
+        <v>161.73</v>
       </c>
       <c r="H5" t="n">
-        <v>25187.09</v>
+        <v>48670.89</v>
       </c>
       <c r="I5" t="n">
-        <v>265.089999999997</v>
+        <v>18.7399999999933</v>
       </c>
       <c r="J5" t="n">
-        <v>16959.98</v>
+        <v>20991.85</v>
       </c>
       <c r="K5" t="n">
-        <v>812.22</v>
+        <v>629.38</v>
       </c>
       <c r="L5" t="n">
-        <v>24922</v>
+        <v>48652.15</v>
       </c>
       <c r="M5" t="n">
-        <v>93.98999999999999</v>
+        <v>10.43</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>24768.4019827586</v>
+        <v>48503.4206082259</v>
       </c>
       <c r="P5" t="n">
-        <v>793</v>
+        <v>629.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>-61.5699999999999</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.09</v>
-      </c>
+        <v>-333.44</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>160.78</v>
+        <v>212.24</v>
       </c>
       <c r="U5" t="n">
-        <v>23844</v>
+        <v>47796.71</v>
       </c>
       <c r="V5" t="n">
-        <v>9102.01</v>
+        <v>28174.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27755.56</v>
+        <v>50633.3</v>
       </c>
       <c r="C6" t="n">
-        <v>123.82</v>
+        <v>44.9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>549.16</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
-        <v>29012.31</v>
+        <v>51744.6</v>
       </c>
       <c r="I6" t="n">
-        <v>263</v>
+        <v>147.7</v>
       </c>
       <c r="J6" t="n">
-        <v>17587.32</v>
+        <v>21142.9</v>
       </c>
       <c r="K6" t="n">
-        <v>844.9400000000001</v>
+        <v>855.9</v>
       </c>
       <c r="L6" t="n">
-        <v>28749.31</v>
+        <v>51597</v>
       </c>
       <c r="M6" t="n">
-        <v>18.04</v>
+        <v>8.9</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>28625.49</v>
+        <v>51552.1</v>
       </c>
       <c r="P6" t="n">
-        <v>844.9400000000001</v>
+        <v>855.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>-297.85</v>
+        <v>-175.7</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>148.81</v>
+        <v>107.8</v>
       </c>
       <c r="U6" t="n">
-        <v>27737.27</v>
+        <v>50617.4</v>
       </c>
       <c r="V6" t="n">
-        <v>12272</v>
+        <v>30837.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29084.8</v>
+        <v>53918.4</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9</v>
+        <v>35.9</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>806.7</v>
+        <v>286.6</v>
       </c>
       <c r="H7" t="n">
-        <v>30089.2</v>
+        <v>54593.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2</v>
+        <v>-194.8</v>
       </c>
       <c r="J7" t="n">
-        <v>18135.3</v>
+        <v>21455.6</v>
       </c>
       <c r="K7" t="n">
-        <v>850.4</v>
+        <v>782.7</v>
       </c>
       <c r="L7" t="n">
-        <v>30088.9</v>
+        <v>54788.3</v>
       </c>
       <c r="M7" t="n">
-        <v>41.3</v>
+        <v>12.5</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>29962.1</v>
+        <v>54752.4</v>
       </c>
       <c r="P7" t="n">
-        <v>850.4</v>
+        <v>782.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.8</v>
+        <v>-123.8</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>153.8</v>
+        <v>87.2</v>
       </c>
       <c r="U7" t="n">
-        <v>29040.5</v>
+        <v>53899.2</v>
       </c>
       <c r="V7" t="n">
-        <v>12681.7</v>
+        <v>33548.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31069.75</v>
+        <v>56455.4</v>
       </c>
       <c r="C8" t="n">
-        <v>163.66</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.84</v>
-      </c>
+        <v>22.3</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>633.72</v>
+        <v>294.1</v>
       </c>
       <c r="H8" t="n">
-        <v>32249.19</v>
+        <v>57332.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.98959999999499</v>
+        <v>206.4</v>
       </c>
       <c r="J8" t="n">
-        <v>18476.57</v>
+        <v>19968.5</v>
       </c>
       <c r="K8" t="n">
-        <v>977.1</v>
+        <v>630.1</v>
       </c>
       <c r="L8" t="n">
-        <v>32245.1989894</v>
+        <v>57125.9</v>
       </c>
       <c r="M8" t="n">
-        <v>22.91</v>
+        <v>13.1</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>32081.5389894</v>
+        <v>57103.6</v>
       </c>
       <c r="P8" t="n">
-        <v>977.1</v>
+        <v>630.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>-111.14</v>
+        <v>-442.8</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>198.3504</v>
+        <v>40.4</v>
       </c>
       <c r="U8" t="n">
-        <v>31046</v>
+        <v>56442.3</v>
       </c>
       <c r="V8" t="n">
-        <v>14517.48</v>
+        <v>38100.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32849.1276</v>
+        <v>58991.5</v>
       </c>
       <c r="C9" t="n">
-        <v>163.66</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.59</v>
-      </c>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>388.37</v>
+        <v>486.1</v>
       </c>
       <c r="H9" t="n">
-        <v>34035.06</v>
+        <v>59969</v>
       </c>
       <c r="I9" t="n">
-        <v>3.46199999999055</v>
+        <v>566.8</v>
       </c>
       <c r="J9" t="n">
-        <v>18631.82</v>
+        <v>19150.6</v>
       </c>
       <c r="K9" t="n">
-        <v>984.12</v>
+        <v>364.7</v>
       </c>
       <c r="L9" t="n">
-        <v>34031.598</v>
+        <v>59402.2</v>
       </c>
       <c r="M9" t="n">
-        <v>15.92</v>
+        <v>14.2</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>33867.9356350014</v>
+        <v>59393.5</v>
       </c>
       <c r="P9" t="n">
-        <v>984.12</v>
+        <v>364.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>-524.4</v>
+        <v>-641.8</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>198.3504</v>
+        <v>46</v>
       </c>
       <c r="U9" t="n">
-        <v>32832.6176</v>
+        <v>58977.3</v>
       </c>
       <c r="V9" t="n">
-        <v>16316.01</v>
+        <v>41946.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34105.14177216</v>
+        <v>62627.7</v>
       </c>
       <c r="C10" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.95</v>
-      </c>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>423.75</v>
+        <v>262.7</v>
       </c>
       <c r="H10" t="n">
-        <v>35498.6052</v>
+        <v>63849.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.363027840004406</v>
+        <v>844.8</v>
       </c>
       <c r="J10" t="n">
-        <v>19043.96</v>
+        <v>18932.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1192.75</v>
+        <v>348.3</v>
       </c>
       <c r="L10" t="n">
-        <v>35498.24217216</v>
+        <v>63004.3</v>
       </c>
       <c r="M10" t="n">
-        <v>8.869999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>35332.5793286467</v>
+        <v>62995.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1192.75</v>
+        <v>348.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>-1010.1</v>
+        <v>-1009.1</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>200.3504</v>
+        <v>28.3</v>
       </c>
       <c r="U10" t="n">
-        <v>34095.32177216</v>
+        <v>62612.4</v>
       </c>
       <c r="V10" t="n">
-        <v>17888.52</v>
+        <v>46188.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37115.7707316544</v>
+        <v>66907.89999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>153.42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.99</v>
-      </c>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>507.25</v>
+        <v>81</v>
       </c>
       <c r="H11" t="n">
-        <v>38130.495336</v>
+        <v>68007.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9003819456035</v>
+        <v>739.2</v>
       </c>
       <c r="J11" t="n">
-        <v>18949</v>
+        <v>19101.4</v>
       </c>
       <c r="K11" t="n">
-        <v>826.16</v>
+        <v>326.5</v>
       </c>
       <c r="L11" t="n">
-        <v>38128.5949540544</v>
+        <v>67268.3</v>
       </c>
       <c r="M11" t="n">
-        <v>4.38</v>
+        <v>16</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>37975.1682295935</v>
+        <v>67259.10000000001</v>
       </c>
       <c r="P11" t="n">
-        <v>826.16</v>
+        <v>326.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>-676.544663999999</v>
+        <v>-1580.5</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>186.6642224</v>
+        <v>33.8</v>
       </c>
       <c r="U11" t="n">
-        <v>37109.4007316544</v>
+        <v>66891.89999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>20365.29</v>
+        <v>50567.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41876.4</v>
+        <v>69040.5</v>
       </c>
       <c r="C12" t="n">
-        <v>158</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.3</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>303</v>
+        <v>163.8</v>
       </c>
       <c r="H12" t="n">
-        <v>42876.6</v>
+        <v>69969.60000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>492.5</v>
       </c>
       <c r="J12" t="n">
-        <v>20301.4</v>
+        <v>19476.9</v>
       </c>
       <c r="K12" t="n">
-        <v>806.1</v>
+        <v>419</v>
       </c>
       <c r="L12" t="n">
-        <v>42874.6</v>
+        <v>69477.10000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>3.7</v>
+        <v>16.5</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>42716.6</v>
+        <v>69476.5</v>
       </c>
       <c r="P12" t="n">
-        <v>806.1</v>
+        <v>419</v>
       </c>
       <c r="Q12" t="n">
-        <v>-890</v>
+        <v>-3544.1</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>192</v>
+        <v>17.6</v>
       </c>
       <c r="U12" t="n">
-        <v>41869.4</v>
+        <v>69023.89999999999</v>
       </c>
       <c r="V12" t="n">
-        <v>23768.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>43266.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>251.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>43961</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>20287.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>522.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>43965.8</v>
-      </c>
-      <c r="M13" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>43860.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>522.7</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-1453</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>177</v>
-      </c>
-      <c r="U13" t="n">
-        <v>43250.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>25377.9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>45945.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>243.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>46684.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>20747.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>555.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>46678.9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>46559.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>555.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-922.6</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="U14" t="n">
-        <v>45933.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>27102.7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>47810.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>161.7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>48670.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20991.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>48652.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>48503.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>629.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-333.4</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>212.2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>47796.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>28174.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>50633.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>60</v>
-      </c>
-      <c r="H16" t="n">
-        <v>51744.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>21142.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>855.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>51597</v>
-      </c>
-      <c r="M16" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>51552.1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>855.9</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-175.7</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="U16" t="n">
-        <v>50617.4</v>
-      </c>
-      <c r="V16" t="n">
-        <v>30837.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>53918.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>286.6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>54593.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-194.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21455.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>782.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>54788.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>54752.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>782.7</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-123.8</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>53899.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>33548.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>56455.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>294.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>57332.3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19968.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>630.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>57125.9</v>
-      </c>
-      <c r="M18" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>57103.6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>630.1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-442.8</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="U18" t="n">
-        <v>56442.3</v>
-      </c>
-      <c r="V18" t="n">
-        <v>38100.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>58991.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>59969</v>
-      </c>
-      <c r="I19" t="n">
-        <v>566.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>19150.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>364.7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>59402.2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>59393.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>364.7</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>-641.8</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>46</v>
-      </c>
-      <c r="U19" t="n">
-        <v>58977.3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>41946.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>62627.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>63849.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>844.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>18932.4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>348.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>63004.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>62995.5</v>
-      </c>
-      <c r="P20" t="n">
-        <v>348.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-1009.1</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="U20" t="n">
-        <v>62612.4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>46188.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>66907.89999999999</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>81</v>
-      </c>
-      <c r="H21" t="n">
-        <v>68007.48</v>
-      </c>
-      <c r="I21" t="n">
-        <v>739.21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>19101.41</v>
-      </c>
-      <c r="K21" t="n">
-        <v>326.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>67268.27</v>
-      </c>
-      <c r="M21" t="n">
-        <v>16</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>67259.10000000001</v>
-      </c>
-      <c r="P21" t="n">
-        <v>326.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-1580.53</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>66891.89999999999</v>
-      </c>
-      <c r="V21" t="n">
-        <v>50567.6</v>
+        <v>54200.7</v>
       </c>
     </row>
   </sheetData>
